--- a/data/meta.xlsx
+++ b/data/meta.xlsx
@@ -450,7 +450,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
